--- a/excel_reports/product_category.xlsx
+++ b/excel_reports/product_category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>price_difference</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>product_count</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +475,9 @@
       <c r="D2" t="n">
         <v>156.71</v>
       </c>
+      <c r="E2" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +494,9 @@
       <c r="D3" t="n">
         <v>3038.28</v>
       </c>
+      <c r="E3" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +513,9 @@
       <c r="D4" t="n">
         <v>81</v>
       </c>
+      <c r="E4" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +531,9 @@
       </c>
       <c r="D5" t="n">
         <v>1411.26</v>
+      </c>
+      <c r="E5" t="n">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
